--- a/medicine/Psychotrope/Thé_au_lait/Thé_au_lait.xlsx
+++ b/medicine/Psychotrope/Thé_au_lait/Thé_au_lait.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9_au_lait</t>
+          <t>Thé_au_lait</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le thé au lait est une boisson à base de thé et de différents éléments tirés du lait que l'on retrouve dans différentes régions d'Asie et d'Europe.
 Le thé au lait est traditionnellement dans différentes régions d'Asie :
@@ -489,7 +501,7 @@
 Le thé au lait est consommé au Royaume-Uni et en Irlande, sous l'influence de son ancienne colonie indienne.
 Le thé aux perles est une spécialité de Taïwan, à base de thé au lait et de perles de tapioca que l'on trouve également dans les quartiers chinois de par le monde.
 Le Teh tarik est un thé au lait consommé en Malaisie et à Singapour, à base de thé noir.
-Au Viêt Nam, la boisson est appelée trà sua et est très populaire notamment ches les jeunes[1].</t>
+Au Viêt Nam, la boisson est appelée trà sua et est très populaire notamment ches les jeunes.</t>
         </is>
       </c>
     </row>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9_au_lait</t>
+          <t>Thé_au_lait</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,10 +529,12 @@
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses études expérimentales et cliniques antérieures ont révélé que le thé exerce un effet protecteur contre les maladies cardiovasculaires[réf. souhaitée].
-Si la consommation de thé noir permet d'améliorer de manière significative la dilatation des artères par rapport à la consommation d'eau chaude, l'ajout de lait a totalement supprimé les effets du thé en raison de la présence des caséines et de la formation de complexes avec les catéchines du thé[2].
+Si la consommation de thé noir permet d'améliorer de manière significative la dilatation des artères par rapport à la consommation d'eau chaude, l'ajout de lait a totalement supprimé les effets du thé en raison de la présence des caséines et de la formation de complexes avec les catéchines du thé.
 </t>
         </is>
       </c>
